--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7580D-51DF-4459-A29D-40D0818E4261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ACTIVITÉ</t>
+  </si>
+  <si>
+    <t>Création du GitHub / Journal d'activité / reglage problème gitHub</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +44,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +72,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +515,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43756</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:H8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7580D-51DF-4459-A29D-40D0818E4261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2BB35-6B87-48B6-AE8B-B9C1E57A79BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DATE</t>
   </si>
@@ -29,6 +35,9 @@
   </si>
   <si>
     <t>Création du GitHub / Journal d'activité / reglage problème gitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Choix du Template</t>
   </si>
 </sst>
 </file>
@@ -200,6 +209,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,30 +243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,7 +528,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,322 +541,326 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="13">
         <v>43756</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="13">
+        <v>43777</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:H8"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:H28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:H30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:H4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:H6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2BB35-6B87-48B6-AE8B-B9C1E57A79BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20B1B0D-8C3A-43FC-A08E-991E10C3718B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>Création du GitHub / Journal d'activité / reglage problème gitHub</t>
   </si>
   <si>
-    <t xml:space="preserve">  - Choix du Template</t>
+    <t xml:space="preserve">  Choix du Template/Découverte du programme/Traduction de la fiche de tuto</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,6 +830,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -837,30 +861,6 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20B1B0D-8C3A-43FC-A08E-991E10C3718B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096DB42-2C6F-4D90-AB81-66B80FAB9759}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DATE</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Choix du Template/Découverte du programme/Traduction de la fiche de tuto</t>
+  </si>
+  <si>
+    <t>Choix des themes/Choix des tables de BDD/Nom des Pages HTML/Shéma de l'acheminement des pages/Création de la page "end.html"</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,15 +598,19 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="13">
+        <v>43784</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -830,30 +837,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -861,6 +844,30 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096DB42-2C6F-4D90-AB81-66B80FAB9759}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68A0A3E-26FF-4B0C-B363-B4C264ED470D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DATE</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Choix des themes/Choix des tables de BDD/Nom des Pages HTML/Shéma de l'acheminement des pages/Création de la page "end.html"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuer la page ""end.html"/Essaye d'intégrer le PHP à la page </t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,7 +534,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
+      <c r="B3" s="2">
         <v>43756</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -576,7 +579,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+      <c r="B5" s="2">
         <v>43777</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -598,7 +601,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="2">
         <v>43784</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -620,8 +623,12 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="2">
+        <v>43791</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -638,7 +645,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -656,7 +663,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -674,7 +681,7 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -692,7 +699,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -710,7 +717,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -728,7 +735,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -746,7 +753,7 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -764,7 +771,7 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -782,7 +789,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -800,7 +807,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -818,7 +825,7 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -837,6 +844,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -844,30 +875,6 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68A0A3E-26FF-4B0C-B363-B4C264ED470D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA7EE6A-AFF6-4E41-B1CB-618D3D99EB73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DATE</t>
   </si>
@@ -40,10 +40,16 @@
     <t xml:space="preserve">  Choix du Template/Découverte du programme/Traduction de la fiche de tuto</t>
   </si>
   <si>
-    <t>Choix des themes/Choix des tables de BDD/Nom des Pages HTML/Shéma de l'acheminement des pages/Création de la page "end.html"</t>
+    <t>Choix des themes/Choix des tables de BDD/Nom des Pages HTML/Shéma de l'acheminement des pages/Création de la page "end.html" qui est la dernière page pour accéder au classement, ou la déconnexion du joueur</t>
   </si>
   <si>
-    <t xml:space="preserve">Continuer la page ""end.html"/Essaye d'intégrer le PHP à la page </t>
+    <t>Intégration des trois boutons "Déconnexion", "Continuer", "Classement", et établir les chemins des trois boutons(Continuer-&gt;Page de thème, Classement-&gt;Page de Classement, Deconnexion-&gt;Page d'acueil)</t>
+  </si>
+  <si>
+    <t>Intégration de la phrase "Vous avez gagné" si la condition d'avoir 50 points est remplie, sinon la phrase à afficher est "Vous avez perdu".</t>
+  </si>
+  <si>
+    <t>Décider de comment avoir le nombre de point sur la page end.html</t>
   </si>
 </sst>
 </file>
@@ -79,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -206,37 +212,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,8 +268,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,285 +588,289 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>43756</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>43777</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>43784</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>43791</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -842,32 +887,26 @@
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -875,6 +914,30 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA7EE6A-AFF6-4E41-B1CB-618D3D99EB73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59C654-650A-4DBD-8403-61895611E4F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,32 +232,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,6 +265,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -275,22 +275,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,325 +588,349 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>43756</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>43777</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>43784</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="2">
         <v>43791</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:H34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C11:H12"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -914,30 +938,6 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59C654-650A-4DBD-8403-61895611E4F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAB537-2C86-46C3-8BEF-F08CA1CA6116}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DATE</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Décider de comment avoir le nombre de point sur la page end.html</t>
+  </si>
+  <si>
+    <t>Continuer les tests pour afficher la phrase "Vous avez gagné" ou la phrase "Vous avez perdu".</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,6 +259,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,33 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,17 +591,17 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="16">
         <v>43756</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -620,7 +623,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="16">
         <v>43777</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -642,7 +645,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="16">
         <v>43784</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -664,7 +667,7 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="16">
         <v>43791</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -677,7 +680,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -686,7 +689,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
@@ -697,7 +700,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -706,7 +709,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
@@ -717,7 +720,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -726,8 +729,12 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="16">
+        <v>43798</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -744,7 +751,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -762,7 +769,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -780,7 +787,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -798,7 +805,7 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -816,7 +823,7 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -834,7 +841,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -852,7 +859,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -870,67 +877,43 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:H34"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C11:H12"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -938,6 +921,30 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAB537-2C86-46C3-8BEF-F08CA1CA6116}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2661FAD-3F26-4A6A-8C3A-4E59C4E45C72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>DATE</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Continuer les tests pour afficher la phrase "Vous avez gagné" ou la phrase "Vous avez perdu".</t>
+  </si>
+  <si>
+    <t>Faire des recherches pour envoyer un socket au serveur gagner.</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -259,33 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,6 +270,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +581,7 @@
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:H16"/>
+      <selection activeCell="C17" sqref="C17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,17 +594,17 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16">
+      <c r="B3" s="2">
         <v>43756</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -623,7 +626,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="B5" s="2">
         <v>43777</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -645,7 +648,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="B7" s="2">
         <v>43784</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -667,7 +670,7 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="B9" s="2">
         <v>43791</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -680,7 +683,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -689,7 +692,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
@@ -700,7 +703,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -709,7 +712,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
@@ -720,7 +723,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -729,7 +732,7 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="B15" s="2">
         <v>43798</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -742,7 +745,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -751,8 +754,10 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -760,7 +765,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -769,7 +774,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -787,7 +792,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -805,7 +810,7 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -823,7 +828,7 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -841,7 +846,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -859,7 +864,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -877,43 +882,66 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:H34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C11:H12"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -921,30 +949,6 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Thomas.xlsx
+++ b/Journée d'activité/Thomas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2661FAD-3F26-4A6A-8C3A-4E59C4E45C72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A9B6DA-A5F0-4C98-A071-2BE0BBE8BEDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DATE</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Faire des recherches pour envoyer un socket au serveur gagner.</t>
+  </si>
+  <si>
+    <t>Récupérer le score de l'utilisateur et l'afficher sur la page de classement.</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,8 +777,12 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="2">
+        <v>43805</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
